--- a/3_course/OptimizationMethods/KR1/KR1.xlsx
+++ b/3_course/OptimizationMethods/KR1/KR1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HW\3_course\OptimizationMethods\KR1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HW\ISiT\3_course\OptimizationMethods\KR1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858DBF07-2E2E-494A-A1DD-1DE726AC6660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A982E4-E303-43B7-8C10-B25BA6AB4419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="3150" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,20 +370,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -402,6 +402,982 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$21:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>17.079753600000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.62814400000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.719542400000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.171152000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.262550400000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.776886400000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.6397888</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.245523200000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.690870400000016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.051081600000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.142480000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.171152000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.216851200000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.079753600000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.913984000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36.250905600000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$21:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D3F-474F-BEFF-3DD966C48589}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2145949919"/>
+        <c:axId val="2145948671"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2145949919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2145948671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2145948671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2145949919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4942,6 +5918,42 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>41713</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>105104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>643758</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>78828</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Диаграмма 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E34FBB-9E3E-4432-82D9-A0EA543D6098}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5210,8 +6222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="I88" sqref="H88:I88"/>
+    <sheetView tabSelected="1" topLeftCell="H15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5239,18 +6251,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5259,16 +6271,16 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -5277,16 +6289,16 @@
       <c r="B3" s="3">
         <v>10.7</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -5295,16 +6307,16 @@
       <c r="B4" s="3">
         <v>12.299999999999999</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -5313,16 +6325,16 @@
       <c r="B5" s="3">
         <v>11.6</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -5331,16 +6343,16 @@
       <c r="B6" s="3">
         <v>10.799999999999999</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -5349,16 +6361,16 @@
       <c r="B7" s="3">
         <v>10.7</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -5367,16 +6379,16 @@
       <c r="B8" s="3">
         <v>10.6</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -5493,11 +6505,11 @@
       <c r="B17" s="3">
         <v>11.299999999999999</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -5506,11 +6518,11 @@
       <c r="B18" s="3">
         <v>13.4</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6450,41 +7462,41 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22" t="s">
+      <c r="B43" s="21"/>
+      <c r="C43" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -6553,11 +7565,11 @@
       <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="21">
+      <c r="A50" s="24">
         <f>(J46/(1-J46) * (E14-2))</f>
         <v>71.762417576652695</v>
       </c>
-      <c r="B50" s="21"/>
+      <c r="B50" s="24"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
@@ -6566,11 +7578,11 @@
       <c r="B52" s="4"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="21">
+      <c r="A53" s="24">
         <f>FINV(0.05,F14,G14)</f>
         <v>4.6001099366694227</v>
       </c>
-      <c r="B53" s="21"/>
+      <c r="B53" s="24"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
@@ -7775,15 +8787,15 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22" t="s">
+      <c r="B83" s="21"/>
+      <c r="C83" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
@@ -7852,11 +8864,11 @@
       <c r="B89" s="4"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A90" s="21">
+      <c r="A90" s="24">
         <f>(J86/(1-J86) * (D59-2))</f>
         <v>57.597503606224862</v>
       </c>
-      <c r="B90" s="21"/>
+      <c r="B90" s="24"/>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
@@ -7865,14 +8877,19 @@
       <c r="B92" s="4"/>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A93" s="21">
+      <c r="A93" s="24">
         <f>FINV(0.05,E59,F59)</f>
         <v>4.6001099366694227</v>
       </c>
-      <c r="B93" s="21"/>
+      <c r="B93" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A83:B83"/>
     <mergeCell ref="C83:E83"/>
     <mergeCell ref="D1:M8"/>
     <mergeCell ref="A40:J41"/>
@@ -7880,11 +8897,6 @@
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A83:B83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
